--- a/report/reliability/comb/Campus CECA-Presencial.xlsx
+++ b/report/reliability/comb/Campus CECA-Presencial.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.778758090520984</v>
+        <v>0.7188290744786934</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.7902899789762107</v>
+        <v>0.7448841707574959</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.893109165754463</v>
+        <v>0.8776064331351394</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.23898860947780576</v>
+        <v>0.18340621800932644</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>3.768489341224953</v>
+        <v>2.919788132979532</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.022216724830522006</v>
+        <v>0.026849006052618467</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.4413043478260867</v>
+        <v>1.8592542828350689</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.7481559014780823</v>
+        <v>0.5959820412967891</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.20267218017437813</v>
+        <v>0.09547262400405782</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7567315469736866</v>
+        <v>0.7180846635363511</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7667926993357926</v>
+        <v>0.7348176574048034</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8696356586733175</v>
+        <v>0.8701321556790774</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.23012481953645267</v>
+        <v>0.18759677693233295</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>3.2880304225118957</v>
+        <v>2.770990142908986</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.024547654073088707</v>
+        <v>0.027436674758545783</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.04194837968192434</v>
+        <v>0.06274063920062568</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.20213868685493705</v>
+        <v>0.09519168192127236</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7563366968620658</v>
+        <v>0.6951331307423939</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7674002597899399</v>
+        <v>0.7197549050098001</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8705215226387834</v>
+        <v>0.8607854370435375</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.23072785904922002</v>
+        <v>0.17629402166989014</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>3.2992309410874774</v>
+        <v>2.5683050939213397</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.024599202381536817</v>
+        <v>0.029063815227540053</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.042366117268363354</v>
+        <v>0.06274922023647463</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.20213868685493705</v>
+        <v>0.09494059142785646</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7519330185845905</v>
+        <v>0.69516121071042</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.760971781283398</v>
+        <v>0.7186691108168317</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8678392769766644</v>
+        <v>0.8609719620299283</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.2244567676885634</v>
+        <v>0.17551461160246687</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>3.1836064602298095</v>
+        <v>2.554533250520252</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.02502681930505001</v>
+        <v>0.02903673967845727</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.04300895677156749</v>
+        <v>0.06294726753515167</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.1960241164321597</v>
+        <v>0.09494059142785646</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7471331769351565</v>
+        <v>0.7108092907200637</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7582523954398578</v>
+        <v>0.732966260938938</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8662841284669415</v>
+        <v>0.8588066300679457</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.22187497010133886</v>
+        <v>0.18615625421118398</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>3.136545641556578</v>
+        <v>2.7448451402290126</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.02552257426887772</v>
+        <v>0.027927233661816812</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.04301594560160095</v>
+        <v>0.048657254399932556</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.1960241164321597</v>
+        <v>0.11499429718021449</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.779872227288354</v>
+        <v>0.7082046063337224</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7932962892684328</v>
+        <v>0.7295596615370278</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8614406373626102</v>
+        <v>0.8591480100654838</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.2586523284560909</v>
+        <v>0.18354423780197876</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.8378425160380143</v>
+        <v>2.6976732305669593</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.021810595176016224</v>
+        <v>0.027015858469836458</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.033997864005662196</v>
+        <v>0.049537823554308684</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.2208619750393873</v>
+        <v>0.11499429718021449</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7806390377330815</v>
+        <v>0.7079799688413476</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7913795440630359</v>
+        <v>0.7266297974038666</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8605103507478581</v>
+        <v>0.8568458904024618</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.256424850925849</v>
+        <v>0.1813368354643937</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.7933937998014713</v>
+        <v>2.6580431608976847</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.021646727380196646</v>
+        <v>0.026920204323911994</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.03486360689185056</v>
+        <v>0.05001581952141093</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.2208619750393873</v>
+        <v>0.11499429718021449</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7710687734230535</v>
+        <v>0.7198400612583398</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.785471224018168</v>
+        <v>0.749900489760358</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8850609850014691</v>
+        <v>0.8829007564789293</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.24972952683462546</v>
+        <v>0.19991510937479914</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>3.66137932043526</v>
+        <v>2.998408469659991</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.02314226999899281</v>
+        <v>0.027299213812804306</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.04481643325910543</v>
+        <v>0.06451501561425763</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.20541764125746595</v>
+        <v>0.10469715578959851</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7784801076534613</v>
+        <v>0.7059980232075357</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.7873445355749479</v>
+        <v>0.7350950241880121</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8858353561322513</v>
+        <v>0.8663794657554624</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.2518249719456559</v>
+        <v>0.18781387986302867</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>3.7024420590538725</v>
+        <v>2.7749385300702465</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.022322079331330645</v>
+        <v>0.027978482103277736</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.043625927119756956</v>
+        <v>0.06408340633804653</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.2089291121823384</v>
+        <v>0.09547262400405782</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7661000563339331</v>
+        <v>0.7165853353750162</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7785402565749661</v>
+        <v>0.7373375874261617</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.8919565312398028</v>
+        <v>0.8715563691632167</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.24218903688527504</v>
+        <v>0.18958170866632365</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.5154933557416888</v>
+        <v>2.807168259062897</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.023746696208149374</v>
+        <v>0.02676751164758823</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.047927868664071914</v>
+        <v>0.06450020221743012</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.20213868685493705</v>
+        <v>0.09416428558021596</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7611629403426994</v>
+        <v>0.6961819235464543</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7749693177742248</v>
+        <v>0.7315502316703641</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.8878693650929118</v>
+        <v>0.8751431721670925</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.23842958839064615</v>
+        <v>0.18506449696654842</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.4438384584227126</v>
+        <v>2.725091685577751</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.02420620179728488</v>
+        <v>0.02927290843303148</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.04700395848145752</v>
+        <v>0.06841081361152031</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.1981415270070157</v>
+        <v>0.09494059142785646</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7523231251657593</v>
+        <v>0.691685225772242</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7663692081083727</v>
+        <v>0.7289229189984375</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.866072702681243</v>
+        <v>0.8719863175080099</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.2297057785833241</v>
+        <v>0.18306146767756867</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.280257717329754</v>
+        <v>2.6889876351967814</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.02500800823453486</v>
+        <v>0.029620646662048264</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.0430030312732111</v>
+        <v>0.06723924782503199</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.1981415270070157</v>
+        <v>0.09416428558021596</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7564904816746079</v>
+        <v>0.6750397581144553</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7703851371712704</v>
+        <v>0.7150415650792188</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8693724028145948</v>
+        <v>0.8480909133638105</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.23372281533662764</v>
+        <v>0.17294332225175482</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.3551187744580044</v>
+        <v>2.509283732127464</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.024594441502102386</v>
+        <v>0.03125593991839094</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.04331178006145741</v>
+        <v>0.0638342393957858</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.20213868685493705</v>
+        <v>0.09192363021322725</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.6807792169183896</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.7185901538540951</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8509970686013582</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.17545811163897396</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>2.5535359323622315</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.030654369868403773</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.064388745167541</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.09298032676443846</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>230.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.592607382962577</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.6237911115737894</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.6041456947942816</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.4975696458117608</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.4391304347826086</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.172180862400871</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
-        <v>230.0</v>
+        <v>229.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.5948120747595832</v>
+        <v>0.34469011886137146</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6187650031964905</v>
+        <v>0.45333116811918034</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.5972287210203208</v>
+        <v>0.40623529903604755</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.4871706781840299</v>
+        <v>0.3210820637130385</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.8956521739130436</v>
+        <v>0.9563318777292577</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.3141747409183233</v>
+        <v>0.20480327292834072</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
-        <v>230.0</v>
+        <v>229.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.6419096853782554</v>
+        <v>0.5233205441516057</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6710321998814283</v>
+        <v>0.5689749410144905</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.6547975966806424</v>
+        <v>0.5435152532745257</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.5582286489050611</v>
+        <v>0.40242027619966186</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.4565217391304346</v>
+        <v>3.4541484716157207</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.1312651212843596</v>
+        <v>1.1523594387625373</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
-        <v>230.0</v>
+        <v>229.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.6707516105716737</v>
+        <v>0.5305797585227147</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6925505153597776</v>
+        <v>0.5769494497724489</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6789849625603295</v>
+        <v>0.5503606829871459</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.5779899615114203</v>
+        <v>0.3944908442181294</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.8304347826086955</v>
+        <v>3.912663755458515</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.3056594253592428</v>
+        <v>1.2914246096496078</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
-        <v>230.0</v>
+        <v>229.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.42083121618310576</v>
+        <v>0.4420276937247448</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.3860250141144916</v>
+        <v>0.4680698294939536</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.39638256506282693</v>
+        <v>0.4903081958576166</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.2693930763443958</v>
+        <v>0.4008170000224347</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.6652173913043479</v>
+        <v>0.17903930131004367</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.4999588627989886</v>
+        <v>0.38422506109237525</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
-        <v>230.0</v>
+        <v>229.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.4407283645984526</v>
+        <v>0.4788202540147744</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.4045902046832095</v>
+        <v>0.4947945904403983</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.4160734224432517</v>
+        <v>0.5181083045306605</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.2786118112562823</v>
+        <v>0.30865415891873355</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>0.7217391304347827</v>
+        <v>0.6681222707423581</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.6189264116721678</v>
+        <v>1.5025961343218714</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
-        <v>230.0</v>
+        <v>229.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.4566425364644542</v>
+        <v>0.5018543352106271</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.46039322221551054</v>
+        <v>0.5173795556713533</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.39551488667232026</v>
+        <v>0.5436532752046809</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.33655060140200727</v>
+        <v>0.3203808828524129</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.6043478260869564</v>
+        <v>0.7248908296943232</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.2450700199070075</v>
+        <v>1.621765501943092</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
-        <v>230.0</v>
+        <v>229.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.449714968869526</v>
+        <v>0.23974442864015433</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.44292847238777844</v>
+        <v>0.32729655033363947</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.376967505394071</v>
+        <v>0.23506876639567287</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.29256000682342426</v>
+        <v>0.2112383943336115</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.6956521739130435</v>
+        <v>0.9432314410480349</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.5841679206319783</v>
+        <v>0.2319067486291772</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
-        <v>230.0</v>
+        <v>229.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.5387808040135617</v>
+        <v>0.4512139005256007</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.5232403804878509</v>
+        <v>0.45110988654408435</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.4400796560019343</v>
+        <v>0.39996556477552164</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.3970599402750848</v>
+        <v>0.3107030527627919</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.4478260869565218</v>
+        <v>2.6157205240174672</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.5650019365244352</v>
+        <v>1.2357670501564426</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
-        <v>230.0</v>
+        <v>229.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.5575839999099951</v>
+        <v>0.44619727271035703</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.5545739750083246</v>
+        <v>0.43302240363402406</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.48393794812770785</v>
+        <v>0.37000689692551947</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.43747934347265705</v>
+        <v>0.2616253252427197</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.3217391304347825</v>
+        <v>2.7074235807860263</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.3801324288522265</v>
+        <v>1.5775249600614714</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
-        <v>230.0</v>
+        <v>229.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.6280668879683484</v>
+        <v>0.5537286683274534</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.6272836609015862</v>
+        <v>0.4792401082378429</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.6152471732215864</v>
+        <v>0.3982267931059236</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.5204062414030771</v>
+        <v>0.38905587362488286</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.2304347826086954</v>
+        <v>1.4541484716157205</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.3810744449035588</v>
+        <v>1.5654837251306606</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
+        <v>28</v>
+      </c>
+      <c r="B38" t="n" s="84">
+        <v>229.0</v>
+      </c>
+      <c r="C38" t="n" s="85">
+        <v>0.5586532308891416</v>
+      </c>
+      <c r="D38" t="n" s="86">
+        <v>0.4997340372683263</v>
+      </c>
+      <c r="E38" t="n" s="87">
+        <v>0.4305518624823981</v>
+      </c>
+      <c r="F38" t="n" s="88">
+        <v>0.41696914307831834</v>
+      </c>
+      <c r="G38" t="n" s="89">
+        <v>2.3275109170305677</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.380370979284363</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
         <v>29</v>
       </c>
-      <c r="B38" t="n" s="84">
-        <v>230.0</v>
-      </c>
-      <c r="C38" t="n" s="85">
-        <v>0.5939612330328338</v>
-      </c>
-      <c r="D38" t="n" s="86">
-        <v>0.593803164764538</v>
-      </c>
-      <c r="E38" t="n" s="87">
-        <v>0.576966921418836</v>
-      </c>
-      <c r="F38" t="n" s="88">
-        <v>0.48412122951569747</v>
-      </c>
-      <c r="G38" t="n" s="89">
-        <v>1.9869565217391305</v>
-      </c>
-      <c r="H38" t="n" s="90">
-        <v>1.3363589808177678</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
+      <c r="B39" t="n" s="84">
+        <v>229.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.6521807033237565</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.6032575131443888</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.5935731143093707</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.530044960524013</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>2.2358078602620086</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.3816884781453813</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>229.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.6201173065839293</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.5775275273115138</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.5634720783017625</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.4954479254367675</v>
+      </c>
+      <c r="G40" t="n" s="89">
+        <v>1.9912663755458515</v>
+      </c>
+      <c r="H40" t="n" s="90">
+        <v>1.3376834728252047</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.04782608695652174</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.05217391304347826</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.013043478260869565</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.29130434782608694</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.49130434782608695</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.10434782608695652</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.04782608695652174</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.013043478260869565</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.034782608695652174</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.2565217391304348</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.1956521739130435</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.45217391304347826</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.030434782608695653</v>
+        <v>0.043668122270742356</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.06521739130434782</v>
+        <v>0.9563318777292577</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.013043478260869565</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.3217391304347826</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.44782608695652176</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.12173913043478261</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.030434782608695653</v>
+        <v>0.043668122270742356</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.02608695652173913</v>
+        <v>0.05240174672489083</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.043478260869565216</v>
+        <v>0.013100436681222707</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.3565217391304348</v>
+        <v>0.2925764192139738</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.06956521739130435</v>
+        <v>0.49344978165938863</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.47391304347826085</v>
+        <v>0.10480349344978165</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.8217391304347826</v>
+        <v>0.043668122270742356</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.013043478260869565</v>
+        <v>0.013100436681222707</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.008695652173913044</v>
+        <v>0.034934497816593885</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.02608695652173913</v>
+        <v>0.2576419213973799</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.09565217391304348</v>
+        <v>0.1965065502183406</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.034782608695652174</v>
+        <v>0.45414847161572053</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
-        <v>0.8217391304347826</v>
+        <v>0.8209606986899564</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.008695652173913044</v>
+        <v>0.17903930131004367</v>
       </c>
       <c r="D48" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.04782608695652174</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.0391304347826087</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.08260869565217391</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.06086956521739131</v>
+        <v>0.8209606986899564</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.19130434782608696</v>
+        <v>0.013100436681222707</v>
       </c>
       <c r="D49" t="n" s="111">
-        <v>0.08260869565217391</v>
+        <v>0.008733624454148471</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.4391304347826087</v>
+        <v>0.026200873362445413</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.2</v>
+        <v>0.09606986899563319</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.02608695652173913</v>
+        <v>0.034934497816593885</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.06086956521739131</v>
+        <v>0.8209606986899564</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.23478260869565218</v>
+        <v>0.008733624454148471</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.20869565217391303</v>
+        <v>0.0</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.10869565217391304</v>
+        <v>0.048034934497816595</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.21739130434782608</v>
+        <v>0.039301310043668124</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.16956521739130434</v>
+        <v>0.08296943231441048</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.45217391304347826</v>
+        <v>0.056768558951965066</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.14782608695652175</v>
+        <v>0.9432314410480349</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.043478260869565216</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.21304347826086956</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.14347826086956522</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.1782608695652174</v>
+        <v>0.056768558951965066</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.12608695652173912</v>
+        <v>0.19213973799126638</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.06956521739130435</v>
+        <v>0.08296943231441048</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.44782608695652176</v>
+        <v>0.4410480349344978</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.1782608695652174</v>
+        <v>0.20087336244541484</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.026200873362445413</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.19130434782608696</v>
+        <v>0.056768558951965066</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.06956521739130435</v>
+        <v>0.23580786026200873</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.27391304347826084</v>
+        <v>0.2096069868995633</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.24782608695652175</v>
+        <v>0.1091703056768559</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.21739130434782608</v>
+        <v>0.2183406113537118</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.1703056768558952</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.2217391304347826</v>
+        <v>0.4497816593886463</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.08260869565217391</v>
+        <v>0.14847161572052403</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.33043478260869563</v>
+        <v>0.043668122270742356</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.21739130434782608</v>
+        <v>0.21397379912663755</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.14782608695652175</v>
+        <v>0.14410480349344978</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.17903930131004367</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.1222707423580786</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.06986899563318777</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.4497816593886463</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.17903930131004367</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.19213973799126638</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.06550218340611354</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.27510917030567683</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.24890829694323144</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.2183406113537118</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.22270742358078602</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.07860262008733625</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.3318777292576419</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.2183406113537118</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.14847161572052403</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8481941059413953</v>
+        <v>0.8710304043278001</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.850095191203073</v>
+        <v>0.9854714639210912</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8704011505423318</v>
+        <v>0.9784405059856051</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.5863880332069784</v>
+        <v>0.9576451011163721</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>5.670900073357084</v>
+        <v>67.83005931008465</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.016885949918922758</v>
+        <v>0.002452215588552219</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.6554347826086957</v>
+        <v>0.5240174672489083</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>1.0224141020960145</v>
+        <v>1.1551353969421099</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.5603404618273297</v>
+        <v>0.9592280316806455</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8031044527985384</v>
+        <v>0.977867847902532</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8067176670693446</v>
+        <v>0.9793219934459676</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7673571149282139</v>
+        <v>0.9594818220413225</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.5818103453315859</v>
+        <v>0.9594818220413224</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>4.173778610995827</v>
+        <v>47.360561129863626</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.022863573998747767</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.02365822302344668</v>
-      </c>
+        <v>0.002823144260325627</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.5546249201201385</v>
+        <v>0.9594818220413225</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8112572780676894</v>
+        <v>0.6017508002005323</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8137939529892039</v>
+        <v>0.9791897790047543</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.7720452579983674</v>
+        <v>0.9592280316806455</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.5929661772394731</v>
+        <v>0.9592280316806456</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>4.370394871988344</v>
+        <v>47.05330996861891</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.021905585640158785</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.020418926327371793</v>
-      </c>
+        <v>0.007393973018453169</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.5660560035345208</v>
+        <v>0.9592280316806455</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8080518884085758</v>
+        <v>0.6283093053735256</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8101261994068034</v>
+        <v>0.9765766276446841</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7660248836453967</v>
+        <v>0.9542254496271483</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.5871553599442435</v>
+        <v>0.9542254496271485</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>4.266656046678569</v>
+        <v>41.69240077093544</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.022276225147970816</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.019832402023910133</v>
-      </c>
+        <v>0.007934050776476596</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.5546249201201385</v>
+        <v>0.9542254496271484</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.8071707676416657</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.8078756143735464</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.7680540263774295</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.5836202503126112</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>4.204961341785597</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.022190478268394025</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.022432111920934795</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.5660560035345208</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>229.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9735318971210316</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9851595332013543</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9735844069436087</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.966649574856275</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.17903930131004367</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.38422506109237525</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
-        <v>230.0</v>
+        <v>229.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8300396756108421</v>
+        <v>0.9884232312495858</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8346703810239194</v>
+        <v>0.9852453502548474</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.7794762198260886</v>
+        <v>0.9738075281071438</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.6978743289510388</v>
+        <v>0.9645843781893543</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.4391304347826086</v>
+        <v>0.6681222707423581</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.172180862400871</v>
+        <v>1.5025961343218714</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
-        <v>230.0</v>
+        <v>229.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8335637355433597</v>
+        <v>0.9903712404201975</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8245963228230472</v>
+        <v>0.9869369308591867</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7661225934469542</v>
+        <v>0.9778967791965185</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.6799221243447945</v>
+        <v>0.9666324692696416</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.8956521739130436</v>
+        <v>0.7248908296943232</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.3141747409183233</v>
+        <v>1.621765501943092</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>230.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8199583897746616</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.829843668974381</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.7758234651540142</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.6884432031643484</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.4565217391304346</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.1312651212843596</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>230.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8376311853648387</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8330359813424394</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.7779838626555592</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.6883639547092256</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.8304347826086955</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.3056594253592428</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.8209606986899564</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.17903930131004367</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.8209606986899564</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.013100436681222707</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.008733624454148471</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.026200873362445413</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.09606986899563319</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.034934497816593885</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.04782608695652174</v>
+        <v>0.8209606986899564</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.05217391304347826</v>
+        <v>0.008733624454148471</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.013043478260869565</v>
+        <v>0.0</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.29130434782608694</v>
+        <v>0.048034934497816595</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.49130434782608695</v>
+        <v>0.039301310043668124</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.10434782608695652</v>
+        <v>0.08296943231441048</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.04782608695652174</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.013043478260869565</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.034782608695652174</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.2565217391304348</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.1956521739130435</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.45217391304347826</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.030434782608695653</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.06521739130434782</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.013043478260869565</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.3217391304347826</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.44782608695652176</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.12173913043478261</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.030434782608695653</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.02608695652173913</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.043478260869565216</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.3565217391304348</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.06956521739130435</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.47391304347826085</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,31 +5873,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.7573463819450295</v>
+        <v>0.6402234727295288</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.7709130247924938</v>
+        <v>0.765643115827993</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.6272241430777028</v>
+        <v>0.6986892004099109</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.6272241430777028</v>
+        <v>0.5213017895864498</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>3.3651543222577516</v>
+        <v>3.266996480743645</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.030545612216563715</v>
+        <v>0.02317256606064056</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>2.65</v>
+        <v>2.088791848617176</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.278090483433311</v>
+        <v>0.8881807554975437</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.6272241430777028</v>
+        <v>0.5204150494404636</v>
       </c>
     </row>
     <row r="7">
@@ -5950,24 +5947,26 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
-        <v>0.6272241430777028</v>
+        <v>0.7526889396535312</v>
       </c>
       <c r="C11" t="n" s="289">
-        <v>0.6272241430777028</v>
+        <v>0.7665944122611006</v>
       </c>
       <c r="D11" t="n" s="290">
-        <v>0.3934101256595588</v>
+        <v>0.6215266250467005</v>
       </c>
       <c r="E11" t="n" s="291">
-        <v>0.6272241430777028</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.6272241430777028</v>
-      </c>
+        <v>0.6215266250467009</v>
+      </c>
+      <c r="F11" t="n" s="292">
+        <v>3.2843875748110034</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.031177374068085614</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
-        <v>0.6272241430777028</v>
+        <v>0.6215266250467008</v>
       </c>
     </row>
     <row r="12">
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.3934101256595588</v>
+        <v>0.21657642648896291</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.6272241430777028</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.3934101256595588</v>
-      </c>
+        <v>0.5934943289647943</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.42196369427218505</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.42196369427218516</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>1.4599902812017451</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.027216889287022945</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.6272241430777028</v>
+        <v>0.4219636942721851</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.3174609645725468</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.6845697161863591</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.5204150494404636</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.5204150494404636</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>2.170272644432609</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.028438084707019255</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.5204150494404636</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>230.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.8757980813701124</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9020044742343862</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.7143648468175283</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.6272241430777027</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.6043478260869564</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.2450700199070075</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
+        <v>24</v>
+      </c>
+      <c r="B18" t="n" s="314">
+        <v>229.0</v>
+      </c>
+      <c r="C18" t="n" s="315">
+        <v>0.5782144267185406</v>
+      </c>
+      <c r="D18" t="n" s="316">
+        <v>0.7846595143027733</v>
+      </c>
+      <c r="E18" t="n" s="317">
+        <v>0.5939714491498369</v>
+      </c>
+      <c r="F18" t="n" s="318">
+        <v>0.5157685050520217</v>
+      </c>
+      <c r="G18" t="n" s="319">
+        <v>0.9432314410480349</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.2319067486291772</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
         <v>25</v>
       </c>
-      <c r="B18" t="n" s="314">
-        <v>230.0</v>
-      </c>
-      <c r="C18" t="n" s="315">
-        <v>0.9252497877092977</v>
-      </c>
-      <c r="D18" t="n" s="316">
-        <v>0.9020044742343862</v>
-      </c>
-      <c r="E18" t="n" s="317">
-        <v>0.7143648468175282</v>
-      </c>
-      <c r="F18" t="n" s="318">
-        <v>0.6272241430777027</v>
-      </c>
-      <c r="G18" t="n" s="319">
-        <v>2.6956521739130435</v>
-      </c>
-      <c r="H18" t="n" s="320">
-        <v>1.5841679206319783</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
+      <c r="B19" t="n" s="314">
+        <v>229.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.8770469156940557</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.8652766199219721</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.7777621960169827</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.6521451503591643</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.6157205240174672</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.2357670501564426</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>229.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9170217876422259</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.8255053895278757</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.6974292736146391</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.6316728220802452</v>
+      </c>
+      <c r="G20" t="n" s="319">
+        <v>2.7074235807860263</v>
+      </c>
+      <c r="H20" t="n" s="320">
+        <v>1.5775249600614714</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
-        <v>0.06086956521739131</v>
-      </c>
-      <c r="C23" t="n" s="340">
-        <v>0.19130434782608696</v>
-      </c>
-      <c r="D23" t="n" s="341">
-        <v>0.08260869565217391</v>
-      </c>
-      <c r="E23" t="n" s="342">
-        <v>0.4391304347826087</v>
-      </c>
-      <c r="F23" t="n" s="343">
-        <v>0.2</v>
-      </c>
-      <c r="G23" t="n" s="344">
-        <v>0.02608695652173913</v>
-      </c>
-      <c r="H23" t="n" s="345">
+      <c r="B25" t="n" s="339">
+        <v>0.056768558951965066</v>
+      </c>
+      <c r="C25" t="n" s="340">
+        <v>0.9432314410480349</v>
+      </c>
+      <c r="D25" t="n" s="341">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
         <v>25</v>
       </c>
-      <c r="B24" t="n" s="339">
-        <v>0.06086956521739131</v>
-      </c>
-      <c r="C24" t="n" s="340">
-        <v>0.23478260869565218</v>
-      </c>
-      <c r="D24" t="n" s="341">
-        <v>0.20869565217391303</v>
-      </c>
-      <c r="E24" t="n" s="342">
-        <v>0.10869565217391304</v>
-      </c>
-      <c r="F24" t="n" s="343">
-        <v>0.21739130434782608</v>
-      </c>
-      <c r="G24" t="n" s="344">
-        <v>0.16956521739130434</v>
-      </c>
-      <c r="H24" t="n" s="345">
+      <c r="B26" t="n" s="339">
+        <v>0.056768558951965066</v>
+      </c>
+      <c r="C26" t="n" s="340">
+        <v>0.19213973799126638</v>
+      </c>
+      <c r="D26" t="n" s="341">
+        <v>0.08296943231441048</v>
+      </c>
+      <c r="E26" t="n" s="342">
+        <v>0.4410480349344978</v>
+      </c>
+      <c r="F26" t="n" s="343">
+        <v>0.20087336244541484</v>
+      </c>
+      <c r="G26" t="n" s="344">
+        <v>0.026200873362445413</v>
+      </c>
+      <c r="H26" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
+        <v>0.056768558951965066</v>
+      </c>
+      <c r="C27" t="n" s="340">
+        <v>0.23580786026200873</v>
+      </c>
+      <c r="D27" t="n" s="341">
+        <v>0.2096069868995633</v>
+      </c>
+      <c r="E27" t="n" s="342">
+        <v>0.1091703056768559</v>
+      </c>
+      <c r="F27" t="n" s="343">
+        <v>0.2183406113537118</v>
+      </c>
+      <c r="G27" t="n" s="344">
+        <v>0.1703056768558952</v>
+      </c>
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.9010056497175141</v>
+        <v>0.7224477389496802</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.9012737716086767</v>
+        <v>0.8611401892484589</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.8202896666335684</v>
+        <v>0.8088683557653515</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.8202896666335686</v>
+        <v>0.6739664749261906</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>9.129020588493248</v>
+        <v>6.201507726301588</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.013033418395610829</v>
+        <v>0.014925209984982394</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>2.108695652173913</v>
+        <v>2.7743813682678313</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.2962536018918887</v>
+        <v>0.8069167777900125</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.8202896666335685</v>
+        <v>0.6488312060162039</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.8202896666335685</v>
+        <v>0.8415384729330382</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.8202896666335685</v>
+        <v>0.8446970363263326</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.6728751371858108</v>
+        <v>0.7311476408234423</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.8202896666335685</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.8202896666335685</v>
-      </c>
+        <v>0.7311476408234421</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>5.439027152767444</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.020655563616056603</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.8202896666335685</v>
+        <v>0.7311476408234421</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.6728751371858108</v>
+        <v>0.3343657872149868</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.8202896666335685</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.6728751371858108</v>
-      </c>
+        <v>0.7870195610669772</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.6488312060162036</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.6488312060162038</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>3.695266875257387</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.0211415214491524</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.8202896666335685</v>
+        <v>0.6488312060162039</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.3622458325700677</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.7819142857015868</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.6419205779389262</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.6419205779389259</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>3.585353071919557</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.022834776549261034</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.641920577938926</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>230.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9555521790511302</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9540151116815625</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8640499996584049</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.8202896666335686</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.2304347826086954</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.3810744449035588</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
-        <v>230.0</v>
+        <v>229.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9524525421645812</v>
+        <v>0.736318434924557</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9540151116815625</v>
+        <v>0.8631267188922499</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8640499996584049</v>
+        <v>0.742386587926398</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.8202896666335685</v>
+        <v>0.6937193369741494</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>1.9869565217391305</v>
+        <v>0.9563318777292577</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.3363589808177678</v>
+        <v>0.20480327292834072</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>229.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.9203960028498097</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.894142525486279</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.8195064925562934</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.7507563376344147</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.4541484716157207</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>1.1523594387625373</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>229.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.9364254619747734</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.8967463640075906</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.8250518275080989</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.7541603293527587</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>3.912663755458515</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.2914246096496078</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.19130434782608696</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.06956521739130435</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.27391304347826084</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.24782608695652175</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.21739130434782608</v>
-      </c>
-      <c r="G23" t="n" s="459">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.043668122270742356</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.9563318777292577</v>
+      </c>
+      <c r="D25" t="n" s="456">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.2217391304347826</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.08260869565217391</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.33043478260869563</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.21739130434782608</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.14782608695652175</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.043668122270742356</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.05240174672489083</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.013100436681222707</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.2925764192139738</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.49344978165938863</v>
+      </c>
+      <c r="G26" t="n" s="459">
+        <v>0.10480349344978165</v>
+      </c>
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.043668122270742356</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.013100436681222707</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.034934497816593885</v>
+      </c>
+      <c r="E27" t="n" s="457">
+        <v>0.2576419213973799</v>
+      </c>
+      <c r="F27" t="n" s="458">
+        <v>0.1965065502183406</v>
+      </c>
+      <c r="G27" t="n" s="459">
+        <v>0.45414847161572053</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9778859696128799</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9793402889092169</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9595169460177787</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9595169460177788</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>47.40338742423765</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.002814600396258208</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>0.6934782608695652</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.5436024011667615</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9595169460177787</v>
+      <c r="A6" t="n" s="491">
+        <v>0.6496951418614454</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.6531640483865035</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.4849618452819139</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.4849618452819138</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>1.8832074510959866</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.0458231284289735</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>1.8908296943231442</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.2700510114739325</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.48496184528191383</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9595169460177788</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9595169460177788</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9206727696952848</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9595169460177788</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9595169460177788</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9595169460177788</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.48496184528191383</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.48496184528191383</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.23518799137923907</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.48496184528191383</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.48496184528191383</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.48496184528191383</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9206727696952848</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9595169460177788</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9206727696952848</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9595169460177788</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.23518799137923907</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.48496184528191383</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.23518799137923907</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.48496184528191383</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
-        <v>230.0</v>
-      </c>
-      <c r="C17" t="n" s="544">
-        <v>0.989032598953674</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9898274965916481</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9695848894534875</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9595169460177786</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>0.6652173913043479</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.4999588627989886</v>
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
+        <v>229.0</v>
+      </c>
+      <c r="C17" t="n" s="545">
+        <v>0.8798508730071898</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.861673327103118</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.6000624286943622</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.48496184528191383</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>1.4541484716157205</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.5654837251306606</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
-        <v>230.0</v>
-      </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9905926411314799</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9898274965916483</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9695848894534875</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9595169460177786</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>0.7217391304347827</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.6189264116721678</v>
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
+        <v>229.0</v>
+      </c>
+      <c r="C18" t="n" s="545">
+        <v>0.8423168975313425</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.861673327103118</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.600062428694362</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.48496184528191394</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>2.3275109170305677</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.380370979284363</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.8217391304347826</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.013043478260869565</v>
-      </c>
-      <c r="D23" t="n" s="570">
-        <v>0.008695652173913044</v>
-      </c>
-      <c r="E23" t="n" s="571">
-        <v>0.02608695652173913</v>
-      </c>
-      <c r="F23" t="n" s="572">
-        <v>0.09565217391304348</v>
-      </c>
-      <c r="G23" t="n" s="573">
-        <v>0.034782608695652174</v>
-      </c>
-      <c r="H23" t="n" s="574">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.4497816593886463</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.14847161572052403</v>
+      </c>
+      <c r="D23" t="n" s="571">
+        <v>0.043668122270742356</v>
+      </c>
+      <c r="E23" t="n" s="572">
+        <v>0.21397379912663755</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.14410480349344978</v>
+      </c>
+      <c r="G23" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.8217391304347826</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.008695652173913044</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.0</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.04782608695652174</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.0391304347826087</v>
-      </c>
-      <c r="G24" t="n" s="573">
-        <v>0.08260869565217391</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
+        <v>0.17903930131004367</v>
+      </c>
+      <c r="C24" t="n" s="570">
+        <v>0.1222707423580786</v>
+      </c>
+      <c r="D24" t="n" s="571">
+        <v>0.06986899563318777</v>
+      </c>
+      <c r="E24" t="n" s="572">
+        <v>0.4497816593886463</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.17903930131004367</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.6515093158023173</v>
+        <v>0.9007258133378875</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.65497577167104</v>
+        <v>0.9009850980180711</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.486962062002982</v>
+        <v>0.8198115388547171</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.486962062002982</v>
+        <v>0.8198115388547171</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>1.8983471822928322</v>
+        <v>9.099489874589885</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.04548643031248472</v>
+        <v>0.013099529745975355</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>1.8847826086956523</v>
+        <v>2.11353711790393</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.2705889346064119</v>
+        <v>1.2970074106946807</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.4869620620029821</v>
+        <v>0.8198115388547171</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.48696206200298203</v>
+        <v>0.8198115388547171</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.48696206200298203</v>
+        <v>0.8198115388547171</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.2371320498301961</v>
+        <v>0.6720909592393394</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.48696206200298203</v>
+        <v>0.8198115388547171</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.48696206200298203</v>
+        <v>0.8198115388547171</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.48696206200298203</v>
+        <v>0.8198115388547171</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.2371320498301961</v>
+        <v>0.6720909592393394</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.48696206200298203</v>
+        <v>0.8198115388547171</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.2371320498301961</v>
+        <v>0.6720909592393394</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.48696206200298203</v>
+        <v>0.8198115388547171</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
-        <v>230.0</v>
+        <v>229.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.8803295892894243</v>
+        <v>0.9554058072711129</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.8622534609971079</v>
+        <v>0.9538898098980608</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.6017034617787977</v>
+        <v>0.8636846930720887</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.486962062002982</v>
+        <v>0.8198115388547172</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>1.4478260869565218</v>
+        <v>2.2358078602620086</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.5650019365244352</v>
+        <v>1.3816884781453813</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
-        <v>230.0</v>
+        <v>229.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.8430063179971027</v>
+        <v>0.9523490806379606</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.8622534609971079</v>
+        <v>0.9538898098980608</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.6017034617787976</v>
+        <v>0.8636846930720887</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.4869620620029821</v>
+        <v>0.819811538854717</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>2.3217391304347825</v>
+        <v>1.9912663755458515</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.3801324288522265</v>
+        <v>1.3376834728252047</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.45217391304347826</v>
+        <v>0.19213973799126638</v>
       </c>
       <c r="C23" t="n" s="684">
-        <v>0.14782608695652175</v>
+        <v>0.06550218340611354</v>
       </c>
       <c r="D23" t="n" s="685">
-        <v>0.043478260869565216</v>
+        <v>0.27510917030567683</v>
       </c>
       <c r="E23" t="n" s="686">
-        <v>0.21304347826086956</v>
+        <v>0.24890829694323144</v>
       </c>
       <c r="F23" t="n" s="687">
-        <v>0.14347826086956522</v>
+        <v>0.2183406113537118</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
-        <v>0.1782608695652174</v>
+        <v>0.22270742358078602</v>
       </c>
       <c r="C24" t="n" s="684">
-        <v>0.12608695652173912</v>
+        <v>0.07860262008733625</v>
       </c>
       <c r="D24" t="n" s="685">
-        <v>0.06956521739130435</v>
+        <v>0.3318777292576419</v>
       </c>
       <c r="E24" t="n" s="686">
-        <v>0.44782608695652176</v>
+        <v>0.2183406113537118</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.1782608695652174</v>
+        <v>0.14847161572052403</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.7818839769553935</v>
+        <v>0.7275437790482792</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.7925489937860684</v>
+        <v>0.7650792691566983</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.8982000724947046</v>
+        <v>0.8939865821964887</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.2764327411212888</v>
+        <v>0.24566758713285378</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>3.8204152790117627</v>
+        <v>3.2567550186408467</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.02241362090619053</v>
+        <v>0.026727038363351063</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.3995652173913045</v>
+        <v>1.7903930131004366</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.8008455044070559</v>
+        <v>0.6835115235005088</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.2268665332802571</v>
+        <v>0.09979090156799093</v>
       </c>
     </row>
     <row r="7">
@@ -7421,292 +7592,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.75672730753285</v>
+        <v>0.7169713596162156</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.7651507492134069</v>
+        <v>0.745808796698378</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.8710411802174823</v>
+        <v>0.8704446301951881</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.2657886418899257</v>
+        <v>0.24585512210087307</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>3.2580506288636077</v>
+        <v>2.9340464461840767</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.025147528255407815</v>
+        <v>0.028401272943103413</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.048503537357258715</v>
+        <v>0.0588597626357689</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.22517544780339205</v>
+        <v>0.16713461563636753</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.7571202403707764</v>
+        <v>0.7071036830264401</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.7665357355763878</v>
+        <v>0.7420669728983532</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.872481236583746</v>
+        <v>0.8715017714223171</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.2672985188666325</v>
+        <v>0.2422313173516687</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>3.2833107776423414</v>
+        <v>2.876975396430787</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.025118927838707446</v>
+        <v>0.02766854125850213</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.048926465384639656</v>
+        <v>0.060365905215679305</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.22517544780339205</v>
+        <v>0.16713461563636753</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.7535049084459512</v>
+        <v>0.7051232724800027</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.7612281994766065</v>
+        <v>0.7381002312346867</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.8695363362273503</v>
+        <v>0.868690603581038</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.26157476967062665</v>
+        <v>0.23846622911863427</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>3.1880992554731167</v>
+        <v>2.8182546121149628</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.02550322985634623</v>
+        <v>0.027738074900878013</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.049862160658265944</v>
+        <v>0.06160219489110279</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.20717337671990216</v>
+        <v>0.16713461563636753</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.7501708636908165</v>
+        <v>0.7287759229609898</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.7597281280346382</v>
+        <v>0.7523289193636866</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.8689992255189851</v>
+        <v>0.8868796124122171</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.25998721306779204</v>
+        <v>0.2523434733918482</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>3.1619520080326446</v>
+        <v>3.037613101339135</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.025849929515287754</v>
+        <v>0.02755209197469834</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.05000148688409245</v>
+        <v>0.0825609414279671</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.21620673725443268</v>
+        <v>0.1420213634124049</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.7554811442436906</v>
+        <v>0.7020126994939666</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.7687062925226744</v>
+        <v>0.7381089404480634</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.8671341857961933</v>
+        <v>0.8768970241833088</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.26968841870845917</v>
+        <v>0.23847441102117883</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>3.3235071585249787</v>
+        <v>2.8183815885539465</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.02525552192796143</v>
+        <v>0.02911627720706633</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.049220531481543484</v>
+        <v>0.08217405607940918</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.20717337671990216</v>
+        <v>0.09547262400405782</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.7612370998382666</v>
+        <v>0.7037131369685811</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.7745361914776348</v>
+        <v>0.738072019120641</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.8718306445605379</v>
+        <v>0.8776941785294798</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.2762539856623337</v>
+        <v>0.2384397276733671</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>3.4353016413310677</v>
+        <v>2.8178433500794586</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.024714074412232487</v>
+        <v>0.028897471054448717</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.049142813091376344</v>
+        <v>0.08221111641672275</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.23086915997401897</v>
+        <v>0.09547262400405782</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.7799513146131932</v>
+        <v>0.7101592344847457</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.7940960583401329</v>
+        <v>0.7582426797051008</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.8568422836123945</v>
+        <v>0.8965742780155532</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.29997227229933404</v>
+        <v>0.2584279296373073</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>3.856633593017373</v>
+        <v>3.1363794022045948</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.022234110850012204</v>
+        <v>0.02867485434672869</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.03757463368068834</v>
+        <v>0.08925124769438712</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.2377046806080774</v>
+        <v>0.09775656582934596</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.780004680568108</v>
+        <v>0.7043262694197197</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.7911379418879343</v>
+        <v>0.7550540078826</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.8557540343096625</v>
+        <v>0.8944055960569236</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.29620689243698706</v>
+        <v>0.25512305308439065</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>3.7878490188172242</v>
+        <v>3.082532607925712</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.022110335183070585</v>
+        <v>0.029118147909394064</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.03945882341989763</v>
+        <v>0.08780760401483537</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.2377046806080774</v>
+        <v>0.09547262400405782</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.7725059509178643</v>
+        <v>0.6838229467981481</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.7830240728772031</v>
+        <v>0.7402581006202811</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.9003601808951288</v>
+        <v>0.8621246207480886</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.2862131552157596</v>
+        <v>0.2405047714499401</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>3.608806208414321</v>
+        <v>2.8499756965975345</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.023738790610888773</v>
+        <v>0.031046825034663186</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.05567138597133543</v>
+        <v>0.08293889908402605</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.2331756010437529</v>
+        <v>0.09547262400405782</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.7662956603322683</v>
+        <v>0.6923297430644245</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.7789258411120178</v>
+        <v>0.746782464595302</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.8965235980113379</v>
+        <v>0.8670452453927858</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.2813435433950377</v>
+        <v>0.24680983649932908</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>3.5233690135023763</v>
+        <v>2.9491735767895264</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.024315903501407735</v>
+        <v>0.03023384396767188</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.054661579955830444</v>
+        <v>0.08298428307611024</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.20717337671990216</v>
+        <v>0.09775656582934596</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
-        <v>230.0</v>
+        <v>229.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.6207545586766349</v>
+        <v>0.5343190067125334</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.6554668276459805</v>
+        <v>0.5654661759344732</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.6291793880995928</v>
+        <v>0.5872995562287401</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.5176887231341347</v>
+        <v>0.49232023772770084</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.4391304347826086</v>
+        <v>0.17903930131004367</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>1.172180862400871</v>
+        <v>0.38422506109237525</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
-        <v>230.0</v>
+        <v>229.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.6190149079151571</v>
+        <v>0.5665644822268997</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.6462631291547292</v>
+        <v>0.5884883629549352</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.6175188619471609</v>
+        <v>0.6108071412951432</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.5012204892425259</v>
+        <v>0.387843203212768</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>3.8956521739130436</v>
+        <v>0.6681222707423581</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>1.3141747409183233</v>
+        <v>1.5025961343218714</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
-        <v>230.0</v>
+        <v>229.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.6480345195477151</v>
+        <v>0.5946687173850927</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.6811531650002193</v>
+        <v>0.6124081300087454</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.6570421655268139</v>
+        <v>0.6377667538270776</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.5539697129703073</v>
+        <v>0.4062131380131061</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.4565217391304346</v>
+        <v>0.7248908296943232</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>1.1312651212843596</v>
+        <v>1.621765501943092</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
-        <v>230.0</v>
+        <v>229.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.6656224832926235</v>
+        <v>0.3886348394698217</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.690830372173849</v>
+        <v>0.5242454018549418</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.6674678424082608</v>
+        <v>0.46529545026539776</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.5585887734630877</v>
+        <v>0.3627558200901217</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>3.8304347826086955</v>
+        <v>0.9563318777292577</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.3056594253592428</v>
+        <v>0.20480327292834072</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
-        <v>230.0</v>
+        <v>229.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.6325919535054478</v>
+        <v>0.5512679095820445</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.6316951094367002</v>
+        <v>0.6123561500309045</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.612440494620088</v>
+        <v>0.5754163950264166</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.510776154467274</v>
+        <v>0.41690087803679515</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>2.2304347826086954</v>
+        <v>3.4541484716157207</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.3810744449035588</v>
+        <v>1.1523594387625373</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
-        <v>230.0</v>
+        <v>229.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.5920469490971795</v>
+        <v>0.5535617671861605</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.5916736377540307</v>
+        <v>0.6125764948273487</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.566598169224965</v>
+        <v>0.5735763019906606</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.4666216963414013</v>
+        <v>0.4010667227930556</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>1.9869565217391305</v>
+        <v>3.912663755458515</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.3363589808177678</v>
+        <v>1.2914246096496078</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
-        <v>230.0</v>
+        <v>229.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.4895488900468319</v>
+        <v>0.5644194105583109</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.4470949983657035</v>
+        <v>0.48559059032528257</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.4582445781280289</v>
+        <v>0.384499282922187</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.3275113141042049</v>
+        <v>0.37640535350682386</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>0.6652173913043479</v>
+        <v>1.4541484716157205</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>1.4999588627989886</v>
+        <v>1.5654837251306606</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
-        <v>230.0</v>
+        <v>229.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.5142195179918605</v>
+        <v>0.5611831259909962</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.4700474782648663</v>
+        <v>0.5065866128338057</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.482439762758183</v>
+        <v>0.41511237467905</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.341928385172629</v>
+        <v>0.398133528235064</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>0.7217391304347827</v>
+        <v>2.3275109170305677</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>1.6189264116721678</v>
+        <v>1.380370979284363</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
-        <v>230.0</v>
+        <v>229.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.5485663579346884</v>
+        <v>0.6549167845605983</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.5309659144050027</v>
+        <v>0.5994571831315011</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.43247387589451164</v>
+        <v>0.5770803294907909</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.3890886243849147</v>
+        <v>0.5139536134887214</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>1.4478260869565218</v>
+        <v>2.2358078602620086</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.5650019365244352</v>
+        <v>1.3816884781453813</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
-        <v>230.0</v>
+        <v>229.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.561548683900139</v>
+        <v>0.6139185045538292</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.5606494181995384</v>
+        <v>0.5594008344071163</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.47376132803439436</v>
+        <v>0.5309429029373063</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.425643926836472</v>
+        <v>0.46815833904243215</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>2.3217391304347825</v>
+        <v>1.9912663755458515</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.3801324288522265</v>
+        <v>1.3376834728252047</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.04782608695652174</v>
+        <v>0.8209606986899564</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.05217391304347826</v>
+        <v>0.17903930131004367</v>
       </c>
       <c r="D39" t="n" s="799">
-        <v>0.013043478260869565</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.29130434782608694</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.49130434782608695</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.10434782608695652</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
-        <v>0.04782608695652174</v>
+        <v>0.8209606986899564</v>
       </c>
       <c r="C40" t="n" s="798">
-        <v>0.013043478260869565</v>
+        <v>0.013100436681222707</v>
       </c>
       <c r="D40" t="n" s="799">
-        <v>0.034782608695652174</v>
+        <v>0.008733624454148471</v>
       </c>
       <c r="E40" t="n" s="800">
-        <v>0.2565217391304348</v>
+        <v>0.026200873362445413</v>
       </c>
       <c r="F40" t="n" s="801">
-        <v>0.1956521739130435</v>
+        <v>0.09606986899563319</v>
       </c>
       <c r="G40" t="n" s="802">
-        <v>0.45217391304347826</v>
+        <v>0.034934497816593885</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
-        <v>0.030434782608695653</v>
+        <v>0.8209606986899564</v>
       </c>
       <c r="C41" t="n" s="798">
-        <v>0.06521739130434782</v>
+        <v>0.008733624454148471</v>
       </c>
       <c r="D41" t="n" s="799">
-        <v>0.013043478260869565</v>
+        <v>0.0</v>
       </c>
       <c r="E41" t="n" s="800">
-        <v>0.3217391304347826</v>
+        <v>0.048034934497816595</v>
       </c>
       <c r="F41" t="n" s="801">
-        <v>0.44782608695652176</v>
+        <v>0.039301310043668124</v>
       </c>
       <c r="G41" t="n" s="802">
-        <v>0.12173913043478261</v>
+        <v>0.08296943231441048</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
-        <v>0.030434782608695653</v>
+        <v>0.043668122270742356</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.02608695652173913</v>
+        <v>0.9563318777292577</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.043478260869565216</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.3565217391304348</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.06956521739130435</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.47391304347826085</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.19130434782608696</v>
+        <v>0.043668122270742356</v>
       </c>
       <c r="C43" t="n" s="798">
-        <v>0.06956521739130435</v>
+        <v>0.05240174672489083</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.27391304347826084</v>
+        <v>0.013100436681222707</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.24782608695652175</v>
+        <v>0.2925764192139738</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.21739130434782608</v>
+        <v>0.49344978165938863</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.10480349344978165</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
-        <v>0.2217391304347826</v>
+        <v>0.043668122270742356</v>
       </c>
       <c r="C44" t="n" s="798">
-        <v>0.08260869565217391</v>
+        <v>0.013100436681222707</v>
       </c>
       <c r="D44" t="n" s="799">
-        <v>0.33043478260869563</v>
+        <v>0.034934497816593885</v>
       </c>
       <c r="E44" t="n" s="800">
-        <v>0.21739130434782608</v>
+        <v>0.2576419213973799</v>
       </c>
       <c r="F44" t="n" s="801">
-        <v>0.14782608695652175</v>
+        <v>0.1965065502183406</v>
       </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.45414847161572053</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.8217391304347826</v>
+        <v>0.4497816593886463</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.013043478260869565</v>
+        <v>0.14847161572052403</v>
       </c>
       <c r="D45" t="n" s="799">
-        <v>0.008695652173913044</v>
+        <v>0.043668122270742356</v>
       </c>
       <c r="E45" t="n" s="800">
-        <v>0.02608695652173913</v>
+        <v>0.21397379912663755</v>
       </c>
       <c r="F45" t="n" s="801">
-        <v>0.09565217391304348</v>
+        <v>0.14410480349344978</v>
       </c>
       <c r="G45" t="n" s="802">
-        <v>0.034782608695652174</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.8217391304347826</v>
+        <v>0.17903930131004367</v>
       </c>
       <c r="C46" t="n" s="798">
-        <v>0.008695652173913044</v>
+        <v>0.1222707423580786</v>
       </c>
       <c r="D46" t="n" s="799">
+        <v>0.06986899563318777</v>
+      </c>
+      <c r="E46" t="n" s="800">
+        <v>0.4497816593886463</v>
+      </c>
+      <c r="F46" t="n" s="801">
+        <v>0.17903930131004367</v>
+      </c>
+      <c r="G46" t="n" s="802">
         <v>0.0</v>
-      </c>
-      <c r="E46" t="n" s="800">
-        <v>0.04782608695652174</v>
-      </c>
-      <c r="F46" t="n" s="801">
-        <v>0.0391304347826087</v>
-      </c>
-      <c r="G46" t="n" s="802">
-        <v>0.08260869565217391</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.45217391304347826</v>
+        <v>0.19213973799126638</v>
       </c>
       <c r="C47" t="n" s="798">
-        <v>0.14782608695652175</v>
+        <v>0.06550218340611354</v>
       </c>
       <c r="D47" t="n" s="799">
-        <v>0.043478260869565216</v>
+        <v>0.27510917030567683</v>
       </c>
       <c r="E47" t="n" s="800">
-        <v>0.21304347826086956</v>
+        <v>0.24890829694323144</v>
       </c>
       <c r="F47" t="n" s="801">
-        <v>0.14347826086956522</v>
+        <v>0.2183406113537118</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
-        <v>0.1782608695652174</v>
+        <v>0.22270742358078602</v>
       </c>
       <c r="C48" t="n" s="798">
-        <v>0.12608695652173912</v>
+        <v>0.07860262008733625</v>
       </c>
       <c r="D48" t="n" s="799">
-        <v>0.06956521739130435</v>
+        <v>0.3318777292576419</v>
       </c>
       <c r="E48" t="n" s="800">
-        <v>0.44782608695652176</v>
+        <v>0.2183406113537118</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.1782608695652174</v>
+        <v>0.14847161572052403</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
